--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.121</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.227</v>
+        <v>18.062</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.094</v>
+        <v>-1.054</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.46</v>
+        <v>25.119</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.08500000000000001</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.755</v>
+        <v>7.692</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.77977057947982</v>
+        <v>10.91813060555483</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.02649552783218</v>
+        <v>20.63640695321871</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35.09188220751923</v>
+        <v>22.79143405505627</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.40661139805026</v>
+        <v>-3.999042460746534</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.31634517825114</v>
+        <v>18.42000837405554</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>35.08052786109607</v>
+        <v>20.75769265220909</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21.25295847278101</v>
+        <v>-1.211352760657469</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36.09142351310282</v>
+        <v>30.23771719723084</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>40.87792862205396</v>
+        <v>31.20928825389296</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.36749425398941</v>
+        <v>32.1654276717925</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>48.79343060073444</v>
+        <v>36.90808254012723</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53.040966081797</v>
+        <v>37.08402564559181</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.34872590071038</v>
+        <v>18.16302940148527</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>44.94192310433701</v>
+        <v>31.33599079347127</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>52.03761257481628</v>
+        <v>36.05659719328427</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.88682366307558</v>
+        <v>24.28887672199297</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35.3372307392444</v>
+        <v>40.34487443024076</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>40.71612371448884</v>
+        <v>51.41425563007436</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.00695093125609</v>
+        <v>13.08418422378828</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>34.19462841075596</v>
+        <v>32.82732117740563</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40.30241784638917</v>
+        <v>47.09319720065993</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.26050796458007</v>
+        <v>14.00069316237603</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>41.34039667477666</v>
+        <v>50.15735929847651</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>46.40537804052812</v>
+        <v>63.96409657052131</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>45.99116816638352</v>
+        <v>49.96257275980202</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53.61409719269121</v>
+        <v>61.55011200053545</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>58.1237989155627</v>
+        <v>65.94726237896796</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.33012507553627</v>
+        <v>26.29627464511048</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>50.35496616890021</v>
+        <v>70.35169569975594</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>57.83104450062344</v>
+        <v>73.10049208300606</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.9097049734628</v>
+        <v>26.57605887921997</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.7235651135104</v>
+        <v>52.45221633997156</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50.04739595427066</v>
+        <v>59.47056739541677</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>26.28716939712622</v>
+        <v>15.85571861748641</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.8768294692649</v>
+        <v>43.77948055392093</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>50.93507799174365</v>
+        <v>51.5320316105976</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>37.4940705989078</v>
+        <v>18.48757165185279</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.88816319513442</v>
+        <v>67.57004814308389</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>57.92973224435412</v>
+        <v>76.46787167494122</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>58.76108741399867</v>
+        <v>77.91839080984376</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>66.59336649383182</v>
+        <v>88.14247110499839</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>71.11646885762057</v>
+        <v>94.28843432078209</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>39.37254289299353</v>
+        <v>36.94732109906487</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>62.91453450595093</v>
+        <v>87.06404099546874</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>70.38279428464115</v>
+        <v>92.36445225774627</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>15.49113826784775</v>
+        <v>11.80472709400464</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>33.54584642520553</v>
+        <v>36.75225189416273</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>38.31428160017968</v>
+        <v>42.50080258530922</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14.18114213761435</v>
+        <v>7.857747500927639</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.96227421530474</v>
+        <v>37.58818351089212</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.4563051931219</v>
+        <v>45.78824441032869</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.45806767877632</v>
+        <v>10.08048216427541</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>40.03689918561366</v>
+        <v>57.49660823994959</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.57315915774763</v>
+        <v>60.2963952685971</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>45.13154462622571</v>
+        <v>61.93964082918936</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>52.79591814380461</v>
+        <v>71.00225489483012</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>56.82822181347207</v>
+        <v>69.01818532690071</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.16470413354178</v>
+        <v>18.34747499124363</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>48.87933346773814</v>
+        <v>54.29418426227394</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>55.5815890138546</v>
+        <v>63.92304806804304</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>20.08742642066564</v>
+        <v>16.67520447041656</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>38.34268881870795</v>
+        <v>42.78688710874829</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.39458077081505</v>
+        <v>52.67834415413837</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>18.16239999367762</v>
+        <v>5.3041386828708</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>37.21922450894068</v>
+        <v>34.22447664554952</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.02047910195668</v>
+        <v>44.59490792071323</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.8369224275176</v>
+        <v>10.78025409253316</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44.65312334231717</v>
+        <v>56.69208460252008</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>49.4382291261878</v>
+        <v>68.12068033612739</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>49.1467337514279</v>
+        <v>51.84938630944636</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>57.00171595989722</v>
+        <v>64.065497472289</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>61.26274631982106</v>
+        <v>64.92981347089736</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.58256928695425</v>
+        <v>13.81878164543248</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>53.72229081570886</v>
+        <v>65.2661274517577</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>60.76193386857527</v>
+        <v>71.73734529743601</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.65837558483581</v>
+        <v>15.7193258964922</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>47.25635811447254</v>
+        <v>51.6790198878137</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>52.22126225004445</v>
+        <v>57.13148008820163</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.09797728359331</v>
+        <v>5.763994210513118</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.52984148830718</v>
+        <v>43.15882009742441</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.23565146318319</v>
+        <v>48.29346433608444</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>39.70661469775476</v>
+        <v>10.27008512049581</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>55.81839541034464</v>
+        <v>68.87958501868529</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>60.54229719311517</v>
+        <v>74.7788437885945</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>61.56182626899228</v>
+        <v>75.58489014653699</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>69.60158657270532</v>
+        <v>88.47146932609361</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>73.89056538080173</v>
+        <v>90.22267706064034</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>41.32298113646571</v>
+        <v>17.62099515789568</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>65.93870869528952</v>
+        <v>81.50338451438611</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>72.92298730984852</v>
+        <v>86.38322725221296</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.77203901598999</v>
+        <v>20.97136989812458</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.90413052861248</v>
+        <v>42.42147139746118</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.59070765551829</v>
+        <v>43.66591769404062</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>13.52741620563532</v>
+        <v>11.99418232473781</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.38923741625734</v>
+        <v>38.97399598086174</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>37.78339146037082</v>
+        <v>43.17557758297738</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>23.7938373311028</v>
+        <v>14.27912109231067</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>39.44210607073334</v>
+        <v>58.19748766814544</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>43.89273934454319</v>
+        <v>56.25096378405894</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>44.62257355962137</v>
+        <v>53.82890842250534</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>52.33404316218173</v>
+        <v>65.09997238987677</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>56.32071974096887</v>
+        <v>62.33974284011253</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>24.64455704509129</v>
+        <v>29.17056686608846</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>48.45648012760419</v>
+        <v>57.25801977033204</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>55.04494661178227</v>
+        <v>62.64315533378326</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.53276099166267</v>
+        <v>24.31721742283258</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.86949253015038</v>
+        <v>50.01615003720029</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.83509542717859</v>
+        <v>55.20811928085145</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>17.67305351413425</v>
+        <v>11.19345806864875</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.81480371737282</v>
+        <v>40.73289709328719</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>42.51136297220909</v>
+        <v>46.58264779663467</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.34532522533674</v>
+        <v>16.10680331391702</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>44.23462199928025</v>
+        <v>61.77565150368969</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>48.92996477347333</v>
+        <v>68.32593670311844</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>48.79780032578564</v>
+        <v>57.62039404289673</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>56.70159046311113</v>
+        <v>68.47911315147437</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.91299307759157</v>
+        <v>67.73281259854019</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.21917868689281</v>
+        <v>29.53875817679932</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>53.46037722296019</v>
+        <v>73.07428771778024</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60.3803340615082</v>
+        <v>74.4213912690421</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.11745765386728</v>
+        <v>22.57813040526922</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>46.78969152677367</v>
+        <v>57.58292980018999</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>51.67297441304178</v>
+        <v>60.05695016868914</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>27.61669536432738</v>
+        <v>11.15285461267842</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>47.12633815006037</v>
+        <v>48.98933416651715</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>52.73317292577438</v>
+        <v>50.95731917573001</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>39.22368594629707</v>
+        <v>14.66839486644054</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>55.402432227166</v>
+        <v>72.41782329232146</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>60.04108819002845</v>
+        <v>75.22204335839135</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>61.21598438082036</v>
+        <v>82.49954517481756</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>69.30008747991178</v>
+        <v>92.20833418931163</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>73.54514239224441</v>
+        <v>93.35272558170443</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>40.96502781861052</v>
+        <v>32.70201623060065</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>65.67364216004158</v>
+        <v>89.75737593589083</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.54528854492904</v>
+        <v>91.47258736376766</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3.961990203737102</v>
+        <v>14.43568705346974</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.89318379661074</v>
+        <v>22.30024692518882</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.87268400645721</v>
+        <v>21.62923891921555</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.96989153917653</v>
+        <v>-0.2384233521819112</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.52373905003632</v>
+        <v>22.30028340784828</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.18985496803325</v>
+        <v>21.67561787629128</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11.34866724777801</v>
+        <v>5.687502364643379</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.88621974227693</v>
+        <v>34.78201225439858</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.59295847541078</v>
+        <v>32.74097240952237</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>31.62826055916413</v>
+        <v>35.11102524536322</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.92981758488591</v>
+        <v>36.64632571940029</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>43.11595318505611</v>
+        <v>41.30302105215701</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13.14626019758746</v>
+        <v>50.01431343391044</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>35.30394010894373</v>
+        <v>58.1934941824688</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>42.27485913184892</v>
+        <v>61.45015812108996</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.158448280841952</v>
+        <v>21.8641317907415</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.30108460372851</v>
+        <v>36.65997468609991</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.59175729424056</v>
+        <v>46.11474023486763</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.679124304140117</v>
+        <v>10.63775234331897</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.51901641322645</v>
+        <v>30.42300972345009</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.52596071539384</v>
+        <v>43.32140513434674</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.46664640808933</v>
+        <v>15.29968324298548</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>31.25242197093153</v>
+        <v>49.89544249886387</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.23521691858231</v>
+        <v>61.80971364698389</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.36783193360734</v>
+        <v>42.80626479501402</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.86993852228582</v>
+        <v>50.40126917447155</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.31559732441788</v>
+        <v>62.33100838586283</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.22521650889104</v>
+        <v>31.81510369964029</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>40.8233967029113</v>
+        <v>70.38141735018246</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>48.17138279660126</v>
+        <v>72.76726258396735</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>18.506155503751</v>
+        <v>26.5342297302865</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.02009109176841</v>
+        <v>48.08305577691743</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>41.25257230106216</v>
+        <v>55.51023890686812</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>17.26942950846728</v>
+        <v>13.88119835133852</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.52038906502949</v>
+        <v>38.53086013617701</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>41.47334271495429</v>
+        <v>46.85351222785565</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.03857764702043</v>
+        <v>20.29637174538859</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>43.14636798152556</v>
+        <v>64.84791191119635</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>48.10184772296488</v>
+        <v>73.95837582341511</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49.45161495284945</v>
+        <v>70.98168257613303</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>57.16274533667512</v>
+        <v>75.7552064947015</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>61.62094327333993</v>
+        <v>89.36565010473608</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>30.57014315927943</v>
+        <v>45.02085508097764</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>53.69334831609102</v>
+        <v>84.20049542904077</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>61.02825156403942</v>
+        <v>91.40368172207778</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.03675873621948</v>
+        <v>23.44946220735064</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.34634835247051</v>
+        <v>44.3035954901714</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>36.3074109666915</v>
+        <v>44.41228652762817</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>12.60443777477076</v>
+        <v>10.92847043643788</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>30.59132960528194</v>
+        <v>44.19379761075051</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36.24742403182184</v>
+        <v>46.08665110850997</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>22.4392321887125</v>
+        <v>17.42234858307838</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>37.33994193198435</v>
+        <v>61.33537891648001</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>42.03456535827435</v>
+        <v>59.82008183633861</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>42.53831713564229</v>
+        <v>62.23571114180429</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>50.01218169832997</v>
+        <v>68.85040025662352</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>54.16812199554841</v>
+        <v>68.72161379919665</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.4368176724396</v>
+        <v>31.24532126119497</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>46.10563575270469</v>
+        <v>38.50887815137294</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>53.05797989062877</v>
+        <v>40.78830156038398</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.32844014168498</v>
+        <v>29.1957444430724</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.84198652723605</v>
+        <v>57.02124401748502</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>42.10744710614271</v>
+        <v>60.22060333752034</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17.39681216720678</v>
+        <v>13.45070204964408</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.66012838887116</v>
+        <v>45.36502603817028</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>41.64878015361356</v>
+        <v>53.41629311922286</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>27.65046895796628</v>
+        <v>18.30680392164613</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>42.79158867176269</v>
+        <v>67.36005333139732</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>47.75559168558244</v>
+        <v>72.77324912739967</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>47.36523078384405</v>
+        <v>67.28916323044001</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>55.03472624093293</v>
+        <v>78.24338299981511</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>59.44612565853603</v>
+        <v>81.71151081258147</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.62519347674932</v>
+        <v>40.52512882930591</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>51.72278111465254</v>
+        <v>82.21130837400401</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>59.04234508229774</v>
+        <v>77.56324931467336</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>27.9774634511659</v>
+        <v>29.52128403349733</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.8616780925972</v>
+        <v>61.79546489924363</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>51.07467716252145</v>
+        <v>64.56850229333304</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>27.29367315158201</v>
+        <v>14.20177649244751</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>45.96752483297486</v>
+        <v>49.28212048939534</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>51.90912804792554</v>
+        <v>53.71506869702206</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.47934980158235</v>
+        <v>19.08009672720047</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>53.94235126940832</v>
+        <v>75.39368348188462</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>58.88452891787348</v>
+        <v>79.87506530269215</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>59.74184704327259</v>
+        <v>89.88620398103895</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>67.6233957851307</v>
+        <v>97.74899496089331</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>72.05020704573961</v>
+        <v>103.2381249588562</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>40.28322481465621</v>
+        <v>45.66527281773078</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>63.91053908168475</v>
+        <v>91.92528528177603</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>71.22559078153695</v>
+        <v>91.16399298987845</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-12.05190172718399</v>
+        <v>13.42812880113043</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.142684532489923</v>
+        <v>34.64735078887445</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>9.618840257992026</v>
+        <v>37.10563518259403</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-14.28833850778508</v>
+        <v>9.899798250068256</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>3.607431862491609</v>
+        <v>38.15382457087925</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>8.75558349900431</v>
+        <v>41.93201373105673</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-5.847432631967763</v>
+        <v>15.45236488245075</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>8.988616758118987</v>
+        <v>59.68571326590116</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>13.24303126736305</v>
+        <v>59.52373272042151</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>15.69328889427426</v>
+        <v>61.20011527155403</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>23.03826868529875</v>
+        <v>72.42051923780129</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>26.83017296068682</v>
+        <v>73.17115603104943</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-2.721503751029161</v>
+        <v>13.56973045668526</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.80333218497435</v>
+        <v>17.36850554420765</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.10689426373102</v>
+        <v>19.30651987610917</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-6.801439751468379</v>
+        <v>22.59695943698232</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>10.58896270058919</v>
+        <v>57.71611931555276</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>15.33072407459515</v>
+        <v>58.30927102096766</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-9.564216944194399</v>
+        <v>7.181419100083311</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>8.597418980908273</v>
+        <v>46.22463849462432</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>14.03299301070872</v>
+        <v>48.4164796791385</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-0.7087136243818293</v>
+        <v>13.45054550333577</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>14.35756834042873</v>
+        <v>68.72583520595776</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>18.84451877906973</v>
+        <v>70.4090338227211</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>20.45336392954474</v>
+        <v>59.36183250498333</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>27.98048999250129</v>
+        <v>76.50004508781757</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.99182753050578</v>
+        <v>79.27118201691741</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>2.41482540379252</v>
+        <v>30.63395013043116</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.3492410112149</v>
+        <v>79.50375737735145</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>31.96762047318119</v>
+        <v>78.10722803556854</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1.466861996945028</v>
+        <v>23.59208491179468</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>19.20093477091873</v>
+        <v>60.95230377708748</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>23.8774748393551</v>
+        <v>61.58651174476841</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-0.03144130588228222</v>
+        <v>9.584730901731778</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>18.50872583023511</v>
+        <v>50.40043829469612</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>23.87793745129685</v>
+        <v>50.61402933312712</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.703170812870432</v>
+        <v>13.68587268233408</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.06772488105301</v>
+        <v>73.49514942405905</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.51583618336212</v>
+        <v>74.67360522961449</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>32.33158279404162</v>
+        <v>82.82158056264061</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>40.04787154758893</v>
+        <v>95.8968374430638</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>44.08273199831507</v>
+        <v>98.68118626757962</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>13.63170840506164</v>
+        <v>29.81143180644344</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>37.05380259740857</v>
+        <v>87.37194011005626</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>43.64566020019259</v>
+        <v>86.75185770798923</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-16.79015024296474</v>
+        <v>4.813055212163659</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.3458507978313179</v>
+        <v>8.832278473618075</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>5.074557529951889</v>
+        <v>13.76333285126307</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-18.88764168819949</v>
+        <v>-4.63828559315202</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-1.089114359171376</v>
+        <v>7.199881729281755</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>4.311510566754194</v>
+        <v>12.3526050330526</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-10.47137729746679</v>
+        <v>-2.578024128008174</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>4.293851080121897</v>
+        <v>21.98493339001059</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>8.762729823691785</v>
+        <v>24.84652105812598</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.26808635093369</v>
+        <v>19.39613327651693</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>18.56062508094665</v>
+        <v>29.28968047140114</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.59094568027803</v>
+        <v>28.8719862589091</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-6.895723135524236</v>
+        <v>9.905967244747227</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>15.56810758971221</v>
+        <v>20.97386137847086</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.22418375110858</v>
+        <v>23.9016989653339</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-11.75815498716634</v>
+        <v>21.79164289858797</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>5.581943983910051</v>
+        <v>34.77995735720356</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>10.59533558282195</v>
+        <v>47.49588342632067</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-14.39198802747156</v>
+        <v>9.222284990523868</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>3.686569645808859</v>
+        <v>26.68555810712143</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>9.398004943172523</v>
+        <v>39.64407611429153</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-5.576488071702343</v>
+        <v>13.29448795389879</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>9.430135447916705</v>
+        <v>44.50225695951693</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>14.15058040156799</v>
+        <v>59.08154882562501</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>15.77114432508002</v>
+        <v>40.94899387329684</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>23.25449380011985</v>
+        <v>53.65662387467728</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.51975238520998</v>
+        <v>58.10653566814522</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-2.036340042518091</v>
+        <v>22.09878643684861</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.85623914780633</v>
+        <v>60.61840167795445</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>27.85521042373929</v>
+        <v>63.97277667842263</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-2.477228115338747</v>
+        <v>23.71162764436864</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>15.18019373530246</v>
+        <v>46.91892787670895</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>20.12478225139161</v>
+        <v>56.57078329620236</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-3.81758998150778</v>
+        <v>13.08310913526546</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.60884577003577</v>
+        <v>39.44974976600626</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>20.25177621837336</v>
+        <v>48.02503786195058</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>5.937671585334172</v>
+        <v>17.58304382065721</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>21.21535463600117</v>
+        <v>61.86359616117359</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.89616664656028</v>
+        <v>72.29432391071832</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.71847743775043</v>
+        <v>70.89637234407863</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>36.37820397915639</v>
+        <v>81.92616491462285</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>40.66291100597572</v>
+        <v>87.03055954506556</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>10.2239130918268</v>
+        <v>33.23655505115622</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>33.56152082359785</v>
+        <v>81.57901990416235</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>40.52974827803809</v>
+        <v>88.51345418494081</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-14.56059553973145</v>
+        <v>3.263289389299677</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>2.422753388187502</v>
+        <v>4.778760571718982</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>7.321605021874547</v>
+        <v>6.003890568724335</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-16.92964136206066</v>
+        <v>-7.457758547598459</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>0.7137504698330446</v>
+        <v>7.46285669045109</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>6.297195416920715</v>
+        <v>9.33186229251403</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-8.394844521436653</v>
+        <v>-6.112764177940512</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>6.219640915648313</v>
+        <v>16.99040278971043</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>10.8544391819435</v>
+        <v>16.80090950488263</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>13.07618452569404</v>
+        <v>13.18174819608904</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>20.42112336598134</v>
+        <v>18.28145332672497</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.52617379924735</v>
+        <v>19.12280580525598</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-5.044657209983527</v>
+        <v>9.190501645796981</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>17.2065724955141</v>
+        <v>10.46207646048621</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>24.06688981357676</v>
+        <v>10.84335922039181</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-9.322642408322423</v>
+        <v>7.047226466882602</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>7.856310328454057</v>
+        <v>10.38768424917395</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>13.05756615394287</v>
+        <v>18.90909596731221</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-12.17615106185526</v>
+        <v>-5.192696218207796</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>5.733789032882797</v>
+        <v>4.358166809221096</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.6476066435554</v>
+        <v>15.4325949114172</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-3.232214941989525</v>
+        <v>-2.708031574908475</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>11.61423993389009</v>
+        <v>20.2857008136077</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>16.51664506768751</v>
+        <v>31.5133859551552</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>17.8522460629614</v>
+        <v>10.6956665011899</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.38790028460219</v>
+        <v>22.22188060565642</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.74607829789352</v>
+        <v>33.83235476938462</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.08079863618993954</v>
+        <v>3.185725045602982</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.74688745315743</v>
+        <v>27.01082038221421</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.97202055282509</v>
+        <v>22.99258823160806</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-0.002330662188768429</v>
+        <v>10.06137505607551</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>17.53365757433418</v>
+        <v>19.76569532891189</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.68404927164722</v>
+        <v>36.57678964371441</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1.609112822466173</v>
+        <v>-2.731271916281074</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16.69702517625825</v>
+        <v>11.89205103341507</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.56511451962218</v>
+        <v>27.27598999162537</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>8.290594385547003</v>
+        <v>0.5234795324502457</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23.44709304406131</v>
+        <v>32.76369219029068</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.32870657074685</v>
+        <v>52.04154799027342</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>30.85225904774985</v>
+        <v>36.13825011416652</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>38.59373664696781</v>
+        <v>47.62436644625183</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>42.96850073867989</v>
+        <v>67.83278696970046</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.36175478560953</v>
+        <v>8.259622716769819</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>35.53758880893702</v>
+        <v>37.1684742619173</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>42.75969165173711</v>
+        <v>45.70817469388134</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>4.059831110220884</v>
+        <v>8.033360225944399</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.0380231012094</v>
+        <v>32.93078887063074</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.61666933642967</v>
+        <v>41.19956445702868</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.016499869159375</v>
+        <v>8.668972271976649</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.74994307121521</v>
+        <v>40.23547773172096</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.03538375978547</v>
+        <v>48.33467593832115</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>12.49502858916219</v>
+        <v>14.38785925096744</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.04821818622998</v>
+        <v>62.68253178244754</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.4067311301277</v>
+        <v>68.20956700510628</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.97326876275106</v>
+        <v>69.18687188432764</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>41.63860506550286</v>
+        <v>81.71867894153445</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>45.52640463859943</v>
+        <v>77.79259721946406</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.55250965021862</v>
+        <v>30.17671034356551</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>38.14585351418899</v>
+        <v>57.11669438075413</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>44.62185982474884</v>
+        <v>68.29318896019232</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>8.62044422609484</v>
+        <v>15.07756661283235</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.77910820430539</v>
+        <v>38.90382546389355</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.61635153764332</v>
+        <v>46.23473434425329</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.978544007193179</v>
+        <v>1.470113175834705</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.96481627176496</v>
+        <v>30.13478953879532</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.52841264473731</v>
+        <v>36.0121206522879</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>16.83978635906944</v>
+        <v>9.080254782622038</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>32.61124239600922</v>
+        <v>53.31774865977321</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>37.19463913740414</v>
+        <v>62.36577695017249</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>37.92975494930072</v>
+        <v>51.15966786063493</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>45.77103985762844</v>
+        <v>62.49332852408247</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>49.87440049320634</v>
+        <v>61.90208796954833</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>18.92699722361509</v>
+        <v>26.16242296690235</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>42.91349017433998</v>
+        <v>69.22757439705505</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>49.69349315206642</v>
+        <v>70.84887488122887</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>16.48524252144996</v>
+        <v>18.31022435474519</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>34.94767870155898</v>
+        <v>48.43596016333896</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.7199420477755</v>
+        <v>53.33227365653407</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>16.17314805999062</v>
+        <v>7.438580366541547</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.49251082992028</v>
+        <v>41.66310259156602</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>40.99110152351221</v>
+        <v>43.91972492072733</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>26.87531486928758</v>
+        <v>12.50684394155536</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.9067066387949</v>
+        <v>65.66955893115829</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>47.45248472776642</v>
+        <v>71.17385905805051</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>49.46672149829348</v>
+        <v>77.48918110198919</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>57.48120082147699</v>
+        <v>85.78603119278237</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>61.61200206482965</v>
+        <v>86.99924349435956</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.81988489920986</v>
+        <v>30.97265938534043</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>54.23935208385559</v>
+        <v>83.87235143558281</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>60.99390825459211</v>
+        <v>88.0974289492065</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-10.18604153916546</v>
+        <v>4.861916837528884</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.368352311935908</v>
+        <v>5.721725027247322</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.10111232058608</v>
+        <v>14.24865189641257</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-12.31434859246122</v>
+        <v>-5.669944499482781</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>4.886697982354335</v>
+        <v>0.6999690737493616</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>10.29089012925866</v>
+        <v>11.04880801101551</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-3.715463528170247</v>
+        <v>-4.862239167159231</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>10.54086430477924</v>
+        <v>14.88701322892763</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>15.01311299204435</v>
+        <v>21.52022516961571</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>17.04261136396151</v>
+        <v>16.15703444214191</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>24.04271527285405</v>
+        <v>20.07615929995352</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.01973695758067</v>
+        <v>24.06569674795684</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-0.8789606981818281</v>
+        <v>5.308830146114875</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.89411625275103</v>
+        <v>19.30799002059862</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>27.5057008563543</v>
+        <v>26.07871456698938</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-5.807218079203807</v>
+        <v>11.458902455777</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.93941213000858</v>
+        <v>20.25585880552887</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>15.9679947402048</v>
+        <v>37.98941015580014</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-8.495152773395773</v>
+        <v>1.007891261454773</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>8.969871971220819</v>
+        <v>13.29858787881228</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>14.69920133842687</v>
+        <v>31.30860493297189</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>0.4754313724320554</v>
+        <v>3.015136916756255</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>14.95926804579965</v>
+        <v>28.59219246722011</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>19.69532254336706</v>
+        <v>48.32640276473344</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>20.88619253344791</v>
+        <v>21.81218674653702</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.07250129185256</v>
+        <v>33.25788957736519</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>32.28172084317675</v>
+        <v>41.17131090380542</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>3.314874617991208</v>
+        <v>5.038550293168566</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.49813397438886</v>
+        <v>38.08936987512521</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>32.46822668575868</v>
+        <v>49.83579399934759</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>3.806974707646305</v>
+        <v>12.92439522076869</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>20.87727957539567</v>
+        <v>31.02948809343986</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.82679449711702</v>
+        <v>47.98023500460006</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>2.394968815953021</v>
+        <v>3.351012453248519</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>20.21328528195824</v>
+        <v>23.82128917629237</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>25.85579145095896</v>
+        <v>39.64388112216388</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.33966870211402</v>
+        <v>6.453636526088879</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.10131696338194</v>
+        <v>43.9779077289745</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>31.78394630325447</v>
+        <v>62.06687258142754</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.14512238155234</v>
+        <v>46.52930659575186</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>41.5072704120271</v>
+        <v>60.42862406951447</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>45.75180194493951</v>
+        <v>74.11806692534388</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>15.91397654375214</v>
+        <v>17.6461859167401</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>38.54050573379315</v>
+        <v>59.93008197857095</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>45.46567362193852</v>
+        <v>74.61522065417057</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.9786634599770849</v>
+        <v>0.5043018547082987</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>18.21201076223616</v>
+        <v>8.788897251225352</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>22.7093854682467</v>
+        <v>9.205362877223916</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-1.156963291186486</v>
+        <v>-8.174751342384575</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.76044868075034</v>
+        <v>6.385484222850447</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>21.92369375205232</v>
+        <v>10.75377891631053</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.070131822926911</v>
+        <v>-10.37605020548395</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.92073943498006</v>
+        <v>19.20656489257837</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.18503358592829</v>
+        <v>16.57893105467818</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.78030303350582</v>
+        <v>13.87583068368378</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.11945200365072</v>
+        <v>19.33140376033723</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.94587781668494</v>
+        <v>20.89303877286859</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.991354187494878</v>
+        <v>-2.682437914572805</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.61480949499713</v>
+        <v>2.356729978181907</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>38.91357278326712</v>
+        <v>5.583358009474605</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>6.022400636219288</v>
+        <v>17.40904890453424</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>23.46406620696774</v>
+        <v>42.23323334138173</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.23914932786486</v>
+        <v>44.54185000872399</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>3.329825717014231</v>
+        <v>6.803446198101987</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>21.52749968102638</v>
+        <v>35.19095871818961</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.99293545223218</v>
+        <v>40.14601769337528</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>12.97157747793275</v>
+        <v>9.439475247604985</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.0638827278993</v>
+        <v>53.39834402220657</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>32.5728400692376</v>
+        <v>56.67419234508502</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.32048445622876</v>
+        <v>46.49157717074868</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>40.85085644113577</v>
+        <v>56.81315033627737</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>44.89826750151772</v>
+        <v>58.42058125118552</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>14.89386307914743</v>
+        <v>22.65976113217134</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>37.94496512978507</v>
+        <v>62.46146682190968</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>44.57540455713195</v>
+        <v>62.96475940427111</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>14.86588706792665</v>
+        <v>18.14405348474924</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.6552770100711</v>
+        <v>50.69582529723291</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.34700105907776</v>
+        <v>51.81805223003892</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>13.46620195578765</v>
+        <v>9.768782363575038</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>32.04598613834464</v>
+        <v>44.88727402768868</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>37.41855949490192</v>
+        <v>47.08197008983524</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>24.05667377326039</v>
+        <v>11.86033700861563</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>39.451174807739</v>
+        <v>66.12833455356686</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>43.90054725718112</v>
+        <v>67.54130938213621</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>45.87265651764345</v>
+        <v>75.72613878233949</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>53.58614363989264</v>
+        <v>84.90125784569129</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>57.66587874183583</v>
+        <v>87.17885224696568</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.78137995281009</v>
+        <v>28.34936336421513</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>50.31491163401918</v>
+        <v>81.73205050257096</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>56.89350747578055</v>
+        <v>81.08072132680206</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>6.335573052380568</v>
+        <v>8.22492916112826</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>23.36274361673966</v>
+        <v>10.24316327577376</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>27.95995084302591</v>
+        <v>11.74902885611229</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>4.319801207251757</v>
+        <v>-4.121438885777536</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.97219243395622</v>
+        <v>4.800607017217587</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.24742695043628</v>
+        <v>8.915273703243857</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>13.77406614812396</v>
+        <v>-3.102144697642096</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.4120182461923</v>
+        <v>19.0118205731573</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>32.76975634668752</v>
+        <v>17.72910980465046</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.8959257394952</v>
+        <v>14.86489514340473</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>41.12120009785174</v>
+        <v>20.33418184998214</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>45.0500850522031</v>
+        <v>21.25890009093967</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>15.28553730540676</v>
+        <v>15.81439176934763</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>37.61637708545772</v>
+        <v>25.68729135647881</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>44.06657477733356</v>
+        <v>29.45907176116612</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>10.94705924155176</v>
+        <v>9.102230450203606</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.18857546754673</v>
+        <v>14.22640427273191</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>33.06683377908345</v>
+        <v>22.57284216264826</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>8.364439275852902</v>
+        <v>-4.751391524531883</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.30790715166638</v>
+        <v>4.482589230446912</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>31.88919082487833</v>
+        <v>14.17189412497599</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>18.20735928623585</v>
+        <v>-2.952533040205406</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>33.09513733465639</v>
+        <v>20.15109054983428</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>37.70051659070542</v>
+        <v>29.79955296998803</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>37.9778641279991</v>
+        <v>15.40063456638925</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>45.39849399682581</v>
+        <v>22.71488860914149</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>49.55157332238552</v>
+        <v>25.64957098807209</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.72199692398706</v>
+        <v>6.152372951946401</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>42.49328642223449</v>
+        <v>29.0591166906711</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>49.28033168087437</v>
+        <v>32.70023078421666</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.15733066665657</v>
+        <v>17.0107764206521</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.73559636561201</v>
+        <v>32.98607119791735</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>42.52404212503096</v>
+        <v>37.31629927918515</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>18.88567484694203</v>
+        <v>4.109694090523231</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>37.19745618069413</v>
+        <v>22.35681844139263</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>42.67963879217741</v>
+        <v>27.12635085998043</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.70411338527961</v>
+        <v>7.157009368887039</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>44.88194794443223</v>
+        <v>44.18365940339267</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>49.42266440744935</v>
+        <v>48.77842889578964</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>50.928235666661</v>
+        <v>51.28408573575165</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>58.5250856650282</v>
+        <v>57.83335232381334</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>62.70645151005039</v>
+        <v>62.02935900849677</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>31.98977618950662</v>
+        <v>24.95944306236697</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>55.22197588065811</v>
+        <v>56.60195398324709</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>61.94696020312175</v>
+        <v>59.60951926645256</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-7.723776561870778</v>
+        <v>8.441111778742764</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>8.325079582822752</v>
+        <v>0.9966109551219304</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>12.73977978129436</v>
+        <v>-2.372831513612709</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-10.59004796519912</v>
+        <v>-5.538995841792591</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.022056840515816</v>
+        <v>-5.056198315150592</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>11.07552163804579</v>
+        <v>-4.97400855703156</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2.207157752908529</v>
+        <v>-4.311113232197457</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>11.55449607830973</v>
+        <v>6.941166632542711</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>15.73520081451668</v>
+        <v>0.6778647303871423</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>17.74008105583511</v>
+        <v>-1.995949596403968</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.55644796714266</v>
+        <v>-0.8608895190173058</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.32897740044024</v>
+        <v>-0.9649370064485723</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>0.4385569870436399</v>
+        <v>13.4073459766464</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.47610953257162</v>
+        <v>11.68562987178056</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.64996419447039</v>
+        <v>12.49622545275437</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-3.047379680815141</v>
+        <v>6.154547197354486</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>13.21773320719812</v>
+        <v>5.0906181721355</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>17.91205936742794</v>
+        <v>8.498429370995861</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-6.434621082251837</v>
+        <v>-7.4080863195198</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.46742230894304</v>
+        <v>-3.869820101751799</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.8263823658053</v>
+        <v>2.289135881343608</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.333001747922381</v>
+        <v>-5.20992917712093</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.34371623766099</v>
+        <v>10.59491023997126</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>20.77168355024549</v>
+        <v>14.82786299060222</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.94729962700161</v>
+        <v>1.133630487526919</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.95842740558382</v>
+        <v>5.349487016779264</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>32.95200432861275</v>
+        <v>7.708670754532267</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>4.962734276933602</v>
+        <v>-2.514486126839891</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.43744541217359</v>
+        <v>12.53053111557736</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>32.94794840616304</v>
+        <v>15.30074865606381</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>6.528115763889531</v>
+        <v>15.67697420809197</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>23.1386422331206</v>
+        <v>24.35030112637673</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.74203832822002</v>
+        <v>28.26516530479513</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>4.388141118645322</v>
+        <v>0.9954592866896341</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>21.6690953949603</v>
+        <v>12.38518505661728</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.92583926610568</v>
+        <v>17.63921798895232</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>14.15354552386334</v>
+        <v>5.343477507244543</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.4638824624175</v>
+        <v>33.91747071600317</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>32.82438659261165</v>
+        <v>37.91700179674704</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.14580449931188</v>
+        <v>36.80419859044046</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.33175234681804</v>
+        <v>41.44296631443608</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>46.3509272840376</v>
+        <v>46.43388881534857</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.48055715752542</v>
+        <v>17.48783177665689</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>39.42452087249031</v>
+        <v>38.55290748324193</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>45.86927334507016</v>
+        <v>44.36982163705886</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-14.83617293410745</v>
+        <v>17.09567957987495</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>2.20973557952324</v>
+        <v>26.71604574697441</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>7.173106828681568</v>
+        <v>28.34109861655188</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-17.13625234025238</v>
+        <v>2.429078241945787</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>0.5660199606189309</v>
+        <v>24.68861842951419</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>6.215522347013732</v>
+        <v>27.25243686004798</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-8.462666232219448</v>
+        <v>7.237422493617053</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>6.205859444071848</v>
+        <v>38.41540378838314</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>10.89472163032979</v>
+        <v>38.30390162979233</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>13.14886793163513</v>
+        <v>39.11537059025247</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>20.48612903590327</v>
+        <v>43.78092383043746</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>24.66450727406558</v>
+        <v>47.90606863046605</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-4.965405713694295</v>
+        <v>39.34187832682295</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>17.38241528722656</v>
+        <v>52.69772587654829</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.337287090061</v>
+        <v>60.3341041381822</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-9.732565350041341</v>
+        <v>13.23109984325522</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>7.512182042968774</v>
+        <v>22.78633301703103</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>12.78302363260508</v>
+        <v>29.79556319711899</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-12.52585994557568</v>
+        <v>-2.271148079102741</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>5.449129882080356</v>
+        <v>11.73172817758486</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>11.4353241333285</v>
+        <v>22.21789528811178</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-3.454118828039952</v>
+        <v>-0.8869869989380703</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>11.45107513991752</v>
+        <v>28.60253122091153</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>16.41276955464311</v>
+        <v>37.79471443369633</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>17.76269157392287</v>
+        <v>28.21863095087086</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.29225433860847</v>
+        <v>35.74800003006836</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.72637663184554</v>
+        <v>42.24986994661744</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-0.005904612816081567</v>
+        <v>18.1759115856107</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.76407058005868</v>
+        <v>48.77980666182191</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.09135985557273</v>
+        <v>51.10306264414025</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-0.041575582405315</v>
+        <v>21.80593470918841</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>17.5450833776657</v>
+        <v>41.55092433582219</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>22.75784710398701</v>
+        <v>47.51570598974265</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1.572318508384569</v>
+        <v>7.969120091952831</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>16.78065666914974</v>
+        <v>30.4645645127575</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.71300060558983</v>
+        <v>37.31325077259648</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>8.474343004662252</v>
+        <v>11.03509427704726</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>23.67407155278415</v>
+        <v>53.80443772594214</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.6086198216122</v>
+        <v>61.18444950703483</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>31.15285107180368</v>
+        <v>65.38373317318661</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>38.8805694121281</v>
+        <v>70.7553335769646</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>43.32836902934966</v>
+        <v>80.73396243010222</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>12.656969615493</v>
+        <v>34.60842974373659</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>35.9121976676646</v>
+        <v>73.33857455484237</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>43.22635569665774</v>
+        <v>80.63026345696045</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>8.147789447513972</v>
+        <v>19.56951885544817</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.43780961542014</v>
+        <v>39.53601489015513</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.12844071681484</v>
+        <v>43.33418691070104</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>6.434604823316093</v>
+        <v>11.01328196967383</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.4115653457203</v>
+        <v>36.10809560968134</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.7946501935872</v>
+        <v>43.17773229593142</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>16.08346756396508</v>
+        <v>12.78801488322491</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.98942619727358</v>
+        <v>52.99813257363787</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>35.43943485700884</v>
+        <v>54.15915958535227</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>36.41920891723636</v>
+        <v>61.78408643058465</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>43.75819942388725</v>
+        <v>66.83695737524994</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>47.70845534287508</v>
+        <v>65.84768983976527</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>17.46361105769139</v>
+        <v>26.44247139896145</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>40.20312106216093</v>
+        <v>59.55705977665098</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>46.76917542542789</v>
+        <v>66.48934072442351</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>12.54715204737361</v>
+        <v>16.49215845725792</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.03314145618132</v>
+        <v>37.89384796551477</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.01099411872684</v>
+        <v>48.12529631300571</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>10.2447641603197</v>
+        <v>5.769314382807682</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.49051459633359</v>
+        <v>29.99020249388468</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.1869723512224</v>
+        <v>41.72777586403666</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>20.27615671074646</v>
+        <v>8.692651416143107</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>35.41343961081769</v>
+        <v>48.15043190103832</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.11754641210602</v>
+        <v>59.85622810544203</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>40.26287847286179</v>
+        <v>47.80195437227449</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.78942022371336</v>
+        <v>57.55801748137472</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>51.96671297964339</v>
+        <v>59.04371313184198</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>21.6794040401787</v>
+        <v>12.89021106092178</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>44.83388228920427</v>
+        <v>57.33688606621172</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>51.74467254321826</v>
+        <v>64.51575921984428</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.47397416134084</v>
+        <v>14.24960508267169</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.28744859103892</v>
+        <v>45.64331394393615</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.17836586111185</v>
+        <v>52.62854398382233</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>20.49468270924471</v>
+        <v>3.944736132385081</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>39.09765334781584</v>
+        <v>36.7733314270375</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>44.69737832374175</v>
+        <v>44.21305681655937</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>31.47696704196998</v>
+        <v>7.143649547546996</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>46.89568022852181</v>
+        <v>59.34398750652086</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>51.53756461687082</v>
+        <v>66.86997656008856</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>52.93218804193594</v>
+        <v>69.02630919163589</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>60.63533837270413</v>
+        <v>80.31703020258496</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>64.84453790875205</v>
+        <v>84.64944258205198</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.69108079076852</v>
+        <v>17.2831169159972</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>57.29549953233511</v>
+        <v>73.48109720249076</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>64.14986416222884</v>
+        <v>80.01474254571255</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27.97067361009662</v>
+        <v>14.27905312348829</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.12530012457013</v>
+        <v>34.21236921277441</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>51.26948564899906</v>
+        <v>38.46682486806779</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>27.23437568635924</v>
+        <v>4.254453453891282</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>46.10862011031433</v>
+        <v>36.08986547202119</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>51.99245768601037</v>
+        <v>40.45661959804914</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.11006803290683</v>
+        <v>9.318333949977518</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>53.75655204190755</v>
+        <v>52.54794249667846</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>58.63473997865918</v>
+        <v>55.15230507357023</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>58.22028604007879</v>
+        <v>60.34446399860387</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>66.03495846809044</v>
+        <v>65.63130552261174</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>70.34088853230588</v>
+        <v>64.30348348357495</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>37.90841490223483</v>
+        <v>28.41273280760234</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>61.6982050493605</v>
+        <v>51.06454445560693</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>68.92289676943257</v>
+        <v>60.78349565190135</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>33.04375259578795</v>
+        <v>18.67823658694461</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>51.40281730108114</v>
+        <v>40.52376456497149</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>56.85469961956834</v>
+        <v>49.46292101041018</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.75413441152268</v>
+        <v>6.648159531001141</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>50.90863391245954</v>
+        <v>32.30091076984205</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>57.1275180287069</v>
+        <v>43.57629406968825</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>43.04563285032099</v>
+        <v>9.522885492559119</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>58.93533698269612</v>
+        <v>52.64866429538938</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>64.08490746191958</v>
+        <v>64.17397281645816</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>62.76486392788743</v>
+        <v>53.15197539704792</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>70.77812199727191</v>
+        <v>63.65400599988051</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>75.34296680795515</v>
+        <v>65.40076503118881</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>42.84863820348063</v>
+        <v>23.07942602232193</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>67.07433472996485</v>
+        <v>71.67815860001491</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>74.66873424611309</v>
+        <v>74.51279578183932</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>41.48152277038535</v>
+        <v>20.49530060924297</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>60.21253486041854</v>
+        <v>50.65184897677319</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>65.60714104056963</v>
+        <v>55.56925456115303</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>41.50669681063007</v>
+        <v>9.554765725251979</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>61.07200025103761</v>
+        <v>42.12826574567931</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>67.23857460284609</v>
+        <v>47.09927757058615</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>53.72655238127455</v>
+        <v>12.59100487556394</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>69.93800521653543</v>
+        <v>67.04328135408257</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>75.06189087592797</v>
+        <v>73.63073743586033</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>75.0704620031577</v>
+        <v>79.31020191452468</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>83.29718072448297</v>
+        <v>87.5976981962326</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>87.87856520127542</v>
+        <v>91.11075654008472</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>54.42584297908243</v>
+        <v>29.34229544177762</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>79.18284167009679</v>
+        <v>84.91929155957</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>86.76766983647195</v>
+        <v>89.72617853779039</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>79.28103169186831</v>
+        <v>20.4325065966218</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>99.04786471652449</v>
+        <v>37.43933637913127</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>104.779487352527</v>
+        <v>38.01585346477142</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>79.90378063135562</v>
+        <v>18.5002694992615</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>100.3866771416244</v>
+        <v>50.60684407362113</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>106.927739736152</v>
+        <v>51.72063183146515</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>94.00287326671476</v>
+        <v>16.26353638874107</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>110.9696049579058</v>
+        <v>55.09173193839533</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>116.3986292456931</v>
+        <v>54.07547863380969</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>112.3558649853123</v>
+        <v>64.0800318750935</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>120.8386374724705</v>
+        <v>65.66449895282332</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>125.6321154622807</v>
+        <v>65.8568916061479</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>88.72726744563693</v>
+        <v>39.21280581637792</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>114.5388714966097</v>
+        <v>54.0022497587558</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>122.5803444035838</v>
+        <v>65.07697082464259</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>84.83060967668395</v>
+        <v>23.18323144267716</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>104.85146239229</v>
+        <v>38.98513635426746</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>110.9306474277155</v>
+        <v>46.45658987101809</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>84.82847844644151</v>
+        <v>30.28650801115534</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>105.6518042090851</v>
+        <v>48.4865266788111</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>112.572812952655</v>
+        <v>60.71599836382263</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>99.39889896637531</v>
+        <v>14.87008225216197</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>116.6606285073104</v>
+        <v>51.45341351598388</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>122.3971186781032</v>
+        <v>61.12029867511811</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>117.3603388741932</v>
+        <v>55.34569728887426</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>126.0805769637155</v>
+        <v>60.52676920806284</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>131.165529544534</v>
+        <v>62.0088255522414</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>94.17131099121862</v>
+        <v>30.08086566813093</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>120.5082361778828</v>
+        <v>66.91110732114714</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>128.9689630697974</v>
+        <v>71.78186131339575</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>93.08026291276249</v>
+        <v>24.59780007704526</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>113.5747004570691</v>
+        <v>48.22049685096079</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>119.5927315435932</v>
+        <v>53.17608905457399</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>94.48619377891137</v>
+        <v>31.73077975100272</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>115.8319652186956</v>
+        <v>56.0301297539181</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>122.698021776072</v>
+        <v>62.72625131122507</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>110.0804492059531</v>
+        <v>18.528517344851</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>127.7547833989262</v>
+        <v>66.04156856295172</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>133.4655488340607</v>
+        <v>72.46069777054774</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>129.9742879255373</v>
+        <v>84.3142657588498</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>138.951940490039</v>
+        <v>84.3741114183801</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>144.0614818887312</v>
+        <v>91.16165482015116</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>105.9618176248769</v>
+        <v>39.35935185921662</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>132.9686707259543</v>
+        <v>80.11856571787106</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>141.4227798003254</v>
+        <v>89.78590136063605</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.00506163921718</v>
+        <v>13.01885780030429</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>41.17132329702724</v>
+        <v>33.84176349055644</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>46.17326521992057</v>
+        <v>39.41597880263986</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.08093994504155</v>
+        <v>-0.2193727078253858</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>40.96656355653485</v>
+        <v>26.97600004091355</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>46.69729041311081</v>
+        <v>36.14556655166507</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.89772524738096</v>
+        <v>6.078804256349287</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>48.55389642487146</v>
+        <v>48.55214364816113</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>53.29318860387869</v>
+        <v>51.51028286000884</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>53.30553823058174</v>
+        <v>58.05715489327485</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>61.04458595199536</v>
+        <v>60.47624413811317</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>65.24502435297977</v>
+        <v>61.72087484260722</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.89649341402428</v>
+        <v>16.65172370686265</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>56.7456477280815</v>
+        <v>52.27458806965421</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>63.7546490527048</v>
+        <v>62.00184503683931</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.74856575184188</v>
+        <v>10.50875529140062</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>46.12140640967415</v>
+        <v>33.23937815580966</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>51.42622259686827</v>
+        <v>42.26752588003663</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>26.21618137601713</v>
+        <v>-3.929716747616443</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>45.38398759254775</v>
+        <v>22.71602895609394</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>51.44511266011652</v>
+        <v>33.3344686669374</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>37.43868426038865</v>
+        <v>-0.1929438173047835</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>53.33873031270362</v>
+        <v>41.9513705063333</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>58.34571441727638</v>
+        <v>52.72077604096226</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>57.47123099710284</v>
+        <v>41.24728685843613</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>65.40948064476294</v>
+        <v>48.90142332484055</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>69.85332356489096</v>
+        <v>52.22537203874729</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>37.46549539135645</v>
+        <v>4.589602540677983</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>61.75267011081414</v>
+        <v>49.94016206906079</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>69.12460959745658</v>
+        <v>58.45485177074579</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.61579985743247</v>
+        <v>8.552852017523534</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>55.35326409732104</v>
+        <v>40.64644187162673</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>60.58734375893724</v>
+        <v>49.83745545434014</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.43184045405372</v>
+        <v>-4.340982216365767</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>56.00022043236887</v>
+        <v>31.02432222658074</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>61.98712684483628</v>
+        <v>39.67412601498629</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>48.62362337090315</v>
+        <v>-1.234464293886568</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>64.83921292589403</v>
+        <v>52.82455226974058</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>69.80349650506453</v>
+        <v>63.03153603710719</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>70.25626043988355</v>
+        <v>64.00446754731077</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>78.39423850519906</v>
+        <v>72.63979351488223</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>82.87745091737152</v>
+        <v>81.00688786688089</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>49.54795041755636</v>
+        <v>6.27372093634073</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>74.34506150859326</v>
+        <v>66.91905066587614</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>81.68895569889288</v>
+        <v>77.8217449021102</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>8.53785852473964</v>
+        <v>13.37912893316944</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.34935661147069</v>
+        <v>18.4777960590424</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.32180843568939</v>
+        <v>22.16962716405838</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>7.045438109934878</v>
+        <v>1.446963949599922</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.49204566410084</v>
+        <v>16.50248718927838</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.15188094991744</v>
+        <v>21.00778687590014</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>16.41512078567749</v>
+        <v>4.914599718650594</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.87576506547126</v>
+        <v>30.43304436259274</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>35.57257924183399</v>
+        <v>32.45641228199216</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.37397373420777</v>
+        <v>30.16301393148148</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>43.5809740841061</v>
+        <v>34.20982353358187</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>47.76816358638003</v>
+        <v>38.84910555824908</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>17.90532243136624</v>
+        <v>22.01093854874562</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>39.92884320577235</v>
+        <v>26.84099081641148</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>46.91269982722527</v>
+        <v>33.38065205466746</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.62520203330022</v>
+        <v>19.49669189959954</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.64484896670736</v>
+        <v>31.97245316816278</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.91900966398017</v>
+        <v>44.52791019053971</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>11.65307674452134</v>
+        <v>8.707601484725451</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.38318727769151</v>
+        <v>24.68089717282329</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>35.37290937510474</v>
+        <v>39.73998699935998</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>21.42591654637158</v>
+        <v>11.09930776860804</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.1316513296921</v>
+        <v>42.18676737661457</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>41.09580355842668</v>
+        <v>56.72665113355247</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.01526938167567</v>
+        <v>37.04340299310314</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>48.41710086577181</v>
+        <v>46.99182624040242</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>52.85576589357563</v>
+        <v>57.97537363058632</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>22.88703584704792</v>
+        <v>17.12878953281508</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>45.34444375927787</v>
+        <v>50.39300915951195</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>52.69455221290944</v>
+        <v>59.19003874832102</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.67156490229323</v>
+        <v>19.31849223931401</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.0405050189963</v>
+        <v>40.69032782221904</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>45.25960486352987</v>
+        <v>52.44979241061053</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>21.95015129568036</v>
+        <v>8.450089776646681</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.06594876000635</v>
+        <v>31.91062200132595</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.0053455254105</v>
+        <v>44.19844670185645</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>32.6619673790894</v>
+        <v>12.28806869943839</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>47.66942936610781</v>
+        <v>55.11857955606946</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.60918510364844</v>
+        <v>67.94014224163077</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>53.72238620610018</v>
+        <v>59.13252488986419</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.32094676195479</v>
+        <v>68.5486369016746</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>65.77715191327982</v>
+        <v>84.58515292152916</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>34.88197228098755</v>
+        <v>21.18476989774381</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>57.83276868932159</v>
+        <v>61.13561910081398</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>65.17301119504786</v>
+        <v>77.06443179525317</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>79.24917021968102</v>
+        <v>7.409099316134128</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>98.9419283009817</v>
+        <v>18.89533785205776</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>104.6920510728862</v>
+        <v>22.21579361878052</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>79.87857586392369</v>
+        <v>-2.845934314648222</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>100.2818129584898</v>
+        <v>23.02908235020897</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>106.8408002971327</v>
+        <v>27.54276881861274</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>93.95263990514484</v>
+        <v>-0.7869336105866047</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>110.8530809766008</v>
+        <v>32.16668775603758</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>116.2977995623685</v>
+        <v>33.94423963145272</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>112.2212850232559</v>
+        <v>39.89371227736727</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>120.6685323981397</v>
+        <v>42.34322251260045</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>125.4760827854315</v>
+        <v>45.91706833656495</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>88.66320894139548</v>
+        <v>22.5801303370765</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>114.3784569174283</v>
+        <v>36.48046972680571</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>122.442109239823</v>
+        <v>47.82373385719187</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>84.73514423552899</v>
+        <v>10.42630980256644</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>104.6805216104332</v>
+        <v>21.82731150259308</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>110.7809298514149</v>
+        <v>35.44326689840771</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>84.739434096827</v>
+        <v>8.709153336949974</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>105.4817565080432</v>
+        <v>22.36160164342812</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>112.4240723475142</v>
+        <v>41.94725402752815</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>99.28074158464069</v>
+        <v>-0.8096985231723544</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>116.4750035731132</v>
+        <v>30.97256501570237</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>122.23000241674</v>
+        <v>46.70952322522832</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>117.1597933124632</v>
+        <v>34.36098545716941</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>125.8441217857055</v>
+        <v>40.36002810846855</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>130.9448734755466</v>
+        <v>48.06173933899693</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>94.03987939566957</v>
+        <v>12.02443661647117</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>120.2789914726658</v>
+        <v>47.62914540075165</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>128.7659744893162</v>
+        <v>56.74122445369314</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>93.05357205811011</v>
+        <v>10.39268327780773</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>113.4715675476797</v>
+        <v>30.09662353144158</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>119.510643308191</v>
+        <v>40.53804892871837</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>94.46373724816311</v>
+        <v>7.714842315465383</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>115.7275018321981</v>
+        <v>27.71668533321255</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>122.6147557305087</v>
+        <v>41.08676664382626</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>110.0320290463222</v>
+        <v>1.338527002305653</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>127.6379287611565</v>
+        <v>44.61021395536045</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>133.3671876319031</v>
+        <v>56.3865926166533</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>129.8380714250753</v>
+        <v>59.99622304114482</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>138.7799289154178</v>
+        <v>60.72918243796278</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>143.9051624736296</v>
+        <v>73.12896835179751</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>105.8946439058222</v>
+        <v>19.09409625022792</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>132.801906691235</v>
+        <v>57.77645871687983</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>141.2820613970751</v>
+        <v>72.20814845939759</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>13.3407660979676</v>
+        <v>17.34871220755048</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.67085654035074</v>
+        <v>36.20437376716859</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>35.36633825405109</v>
+        <v>40.12404006508075</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>12.37366284488804</v>
+        <v>10.8311999758438</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>30.37154878857898</v>
+        <v>39.33289703373782</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>35.7370948725673</v>
+        <v>45.3216944280486</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>22.07276312662607</v>
+        <v>15.01293997433821</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>37.00268024288269</v>
+        <v>56.18130779621394</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>41.44356610251072</v>
+        <v>56.95790572577522</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>42.33001596860697</v>
+        <v>65.28265970587323</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>49.75224381170178</v>
+        <v>66.94640039961519</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>53.74026245231589</v>
+        <v>70.14447192071053</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>23.3915002444055</v>
+        <v>30.78700646460666</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>46.08207366660641</v>
+        <v>44.39820092440635</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>52.71347252415039</v>
+        <v>66.25481050687256</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>18.18456310902372</v>
+        <v>23.7846327614428</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.71581850055434</v>
+        <v>42.04458590480407</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>40.68494426961874</v>
+        <v>47.87420046857616</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>16.66522375479973</v>
+        <v>12.11302128997634</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34.93799263830308</v>
+        <v>34.58693176937051</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>40.60113319873085</v>
+        <v>43.3239378047226</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>26.76122420535651</v>
+        <v>13.52983516694878</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>41.92891453661624</v>
+        <v>51.88259768947552</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>46.61000372038389</v>
+        <v>58.75582168046866</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>46.63363477213228</v>
+        <v>54.24917227556406</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>54.24763515287661</v>
+        <v>59.58956369791704</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>58.46643119200846</v>
+        <v>62.73004706119806</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.06955454221783</v>
+        <v>27.24634852992588</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>51.18435921502933</v>
+        <v>61.37243068192042</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>58.14125140391748</v>
+        <v>70.19757734487924</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>26.43932989372569</v>
+        <v>21.16709181555388</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>44.28566426260608</v>
+        <v>46.72369040398188</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>49.20140267629233</v>
+        <v>51.33414404979627</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.18090140342822</v>
+        <v>10.20038235809837</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>44.79925576744523</v>
+        <v>38.46390434941402</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>50.41420590398661</v>
+        <v>44.05894967119944</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>37.17499303487181</v>
+        <v>11.49776335052291</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>52.61153644091159</v>
+        <v>60.19673218645708</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>57.26921423506177</v>
+        <v>64.87336496187008</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>58.55130897904647</v>
+        <v>76.72843644674457</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>66.34173955490667</v>
+        <v>78.63412909583796</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>70.58594040007505</v>
+        <v>85.47457991140259</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>39.31501916957628</v>
+        <v>31.12226907308454</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>62.8752740435655</v>
+        <v>71.35009200681941</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>69.8251351492512</v>
+        <v>85.11934786946193</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>16.9737369277363</v>
+        <v>13.17618929046708</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>35.04082086951582</v>
+        <v>34.47649463720705</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>40.01132847536146</v>
+        <v>39.82731203314054</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>16.01856906207321</v>
+        <v>2.708424692482922</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>34.81046983760071</v>
+        <v>32.19881397731582</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>40.50086597441781</v>
+        <v>39.7285077667372</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>26.50231509993701</v>
+        <v>7.174644560480726</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>42.08155273258494</v>
+        <v>49.95157454876723</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>46.78814272045939</v>
+        <v>52.91765368313632</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>47.21910135674219</v>
+        <v>55.60600595560321</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>54.92767381158015</v>
+        <v>60.9380601169047</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>59.09875343475276</v>
+        <v>62.52304341718973</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>27.07926758176428</v>
+        <v>16.94489038865223</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>50.79984431573445</v>
+        <v>51.78335054426191</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>57.76850994725899</v>
+        <v>63.02459366527042</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>21.71911933722776</v>
+        <v>11.80216780199251</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>39.9870149056146</v>
+        <v>34.49695318698258</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>45.25656815536304</v>
+        <v>43.17576112842174</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>20.16662979971893</v>
+        <v>0.4863045038480145</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>39.23375902317058</v>
+        <v>27.95205097265661</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>45.25050756805634</v>
+        <v>37.57317287280286</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>31.05529047179446</v>
+        <v>3.242576106711809</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>46.87263836592614</v>
+        <v>45.20095469721186</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>51.84346138718534</v>
+        <v>55.8644894589594</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>51.39634536452341</v>
+        <v>43.06893692579352</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>59.30041685954918</v>
+        <v>52.99909154583729</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>63.71266959004608</v>
+        <v>56.70943724416342</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>31.65763743337818</v>
+        <v>10.5796795628686</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>55.80712797186271</v>
+        <v>58.15789453427434</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>63.13385521908642</v>
+        <v>64.44481739454373</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.53975775769695</v>
+        <v>8.658546643972556</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>49.15870654141245</v>
+        <v>37.94368183124807</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>54.3651186354324</v>
+        <v>47.80002933726507</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>30.31641514191266</v>
+        <v>-1.882729099080152</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.7693773444389</v>
+        <v>31.69026966404271</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>55.72173183866764</v>
+        <v>40.13776533133976</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>42.15827114764477</v>
+        <v>-0.3097268564832447</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>58.27876528718937</v>
+        <v>50.806604223222</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>63.21462137051392</v>
+        <v>61.92534571980381</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>64.06934535331767</v>
+        <v>61.4278734694353</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>72.16843352656808</v>
+        <v>71.03852591240508</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>76.62203869181845</v>
+        <v>80.42538765339805</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>43.63714370878428</v>
+        <v>9.807967943034761</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>68.27888931389631</v>
+        <v>67.01732073421365</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>75.58862083352807</v>
+        <v>78.27082881910468</v>
       </c>
     </row>
   </sheetData>
